--- a/Docs/From Maggie/2023Dec15 HEUvUE LPS.xlsx
+++ b/Docs/From Maggie/2023Dec15 HEUvUE LPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jnj-my.sharepoint.com/personal/mjohn123_its_jnj_com/Documents/Drexel/2023 Mahan Stats Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsargsy\OneDrive - JNJ\projects_ru\flow_cytometry\Docs\From Maggie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2104325-E4B7-8241-8B85-16BC98F26E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956112F3-591A-4C50-A863-D4C953D909A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="760" windowWidth="21080" windowHeight="18360" xr2:uid="{B7DC96AB-7611-B143-BEB7-5957CA9AF991}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7DC96AB-7611-B143-BEB7-5957CA9AF991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Marker</t>
   </si>
@@ -68,9 +68,6 @@
     <t>CD14</t>
   </si>
   <si>
-    <t>APC</t>
-  </si>
-  <si>
     <t>CD11c</t>
   </si>
   <si>
@@ -101,7 +98,16 @@
     <t>https://blog.cellsignal.com/immunology-what-cells-have-a-myeloid-lineage-and-how-are-they-identified</t>
   </si>
   <si>
-    <t>pro inflammatory cytokine (part of response)</t>
+    <t xml:space="preserve">APC-Cy7-A </t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>pro-inflammatory cytokine (part of response)</t>
+  </si>
+  <si>
+    <t>APC-A</t>
   </si>
 </sst>
 </file>
@@ -160,23 +166,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>167711</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142009</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167712</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A0D8F6-F2CB-488B-3FBB-8B0662B1086D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A31AFEB-E8C2-4F22-B285-C339C6C64358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,8 +198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9436100" y="1625600"/>
-          <a:ext cx="7772400" cy="4028511"/>
+          <a:off x="0" y="3415145"/>
+          <a:ext cx="8011391" cy="3984639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -502,110 +508,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046811AE-E3E3-284A-B9B0-2FEB887C768B}">
-  <dimension ref="B4:M31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="168" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M31" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
